--- a/Kosmo Modular Layout.xlsx
+++ b/Kosmo Modular Layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\GitHub\DMH-Navigator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9F4644-B092-4052-B5C7-24FB19A4C28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD3BF90-F188-4601-A8DF-04FF4B0BB7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{50C3DAA0-2BE9-42E0-B270-0FD3FC13A7E1}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="167">
   <si>
     <t>MIDI INTERFACE</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t>Quad VCA</t>
+  </si>
+  <si>
+    <t>Dua VCA</t>
   </si>
 </sst>
 </file>
@@ -823,12 +826,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -837,23 +861,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -873,85 +957,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1274,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC3CC3F-485F-4841-ABDD-E22A7FC9D4D8}">
   <dimension ref="B12:AR63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AM56" sqref="AM56:AP63"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AK68" sqref="AK68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1409,771 +1415,771 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="4" t="s">
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="4" t="s">
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="T13" s="5"/>
-      <c r="U13" s="28" t="s">
+      <c r="T13" s="12"/>
+      <c r="U13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="V13" s="23"/>
-      <c r="W13" s="4" t="s">
+      <c r="V13" s="5"/>
+      <c r="W13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="28" t="s">
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="4" t="s">
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="28" t="s">
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="29"/>
-      <c r="AH13" s="29"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="29"/>
-      <c r="AL13" s="23"/>
-      <c r="AM13" s="4" t="s">
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
+      <c r="AK13" s="25"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AN13" s="10"/>
-      <c r="AO13" s="10"/>
-      <c r="AP13" s="41"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="19"/>
     </row>
     <row r="14" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="32"/>
-      <c r="AG14" s="32"/>
-      <c r="AH14" s="32"/>
-      <c r="AI14" s="32"/>
-      <c r="AJ14" s="32"/>
-      <c r="AK14" s="32"/>
-      <c r="AL14" s="25"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="11"/>
-      <c r="AO14" s="11"/>
-      <c r="AP14" s="42"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="20"/>
     </row>
     <row r="15" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="25"/>
-      <c r="AM15" s="6"/>
-      <c r="AN15" s="11"/>
-      <c r="AO15" s="11"/>
-      <c r="AP15" s="42"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="20"/>
     </row>
     <row r="16" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>4</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="32"/>
-      <c r="AI16" s="32"/>
-      <c r="AJ16" s="32"/>
-      <c r="AK16" s="32"/>
-      <c r="AL16" s="25"/>
-      <c r="AM16" s="6"/>
-      <c r="AN16" s="11"/>
-      <c r="AO16" s="11"/>
-      <c r="AP16" s="42"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="20"/>
     </row>
     <row r="17" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>5</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="32"/>
-      <c r="AG17" s="32"/>
-      <c r="AH17" s="32"/>
-      <c r="AI17" s="32"/>
-      <c r="AJ17" s="32"/>
-      <c r="AK17" s="32"/>
-      <c r="AL17" s="25"/>
-      <c r="AM17" s="6"/>
-      <c r="AN17" s="11"/>
-      <c r="AO17" s="11"/>
-      <c r="AP17" s="42"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="20"/>
     </row>
     <row r="18" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>6</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="32"/>
-      <c r="AI18" s="32"/>
-      <c r="AJ18" s="32"/>
-      <c r="AK18" s="32"/>
-      <c r="AL18" s="25"/>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="11"/>
-      <c r="AO18" s="11"/>
-      <c r="AP18" s="42"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="20"/>
     </row>
     <row r="19" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>7</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="32"/>
-      <c r="AG19" s="32"/>
-      <c r="AH19" s="32"/>
-      <c r="AI19" s="32"/>
-      <c r="AJ19" s="32"/>
-      <c r="AK19" s="32"/>
-      <c r="AL19" s="25"/>
-      <c r="AM19" s="6"/>
-      <c r="AN19" s="11"/>
-      <c r="AO19" s="11"/>
-      <c r="AP19" s="42"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="20"/>
     </row>
     <row r="20" spans="2:44" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>8</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="35"/>
-      <c r="AH20" s="35"/>
-      <c r="AI20" s="35"/>
-      <c r="AJ20" s="35"/>
-      <c r="AK20" s="35"/>
-      <c r="AL20" s="27"/>
-      <c r="AM20" s="8"/>
-      <c r="AN20" s="12"/>
-      <c r="AO20" s="12"/>
-      <c r="AP20" s="43"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="17"/>
+      <c r="AO20" s="17"/>
+      <c r="AP20" s="21"/>
     </row>
     <row r="21" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>9</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="28" t="s">
+      <c r="D21" s="11"/>
+      <c r="E21" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="28" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="28" t="s">
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="4" t="s">
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="28" t="s">
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="V21" s="23"/>
-      <c r="W21" s="28" t="s">
+      <c r="V21" s="5"/>
+      <c r="W21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="4" t="s">
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="4" t="s">
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="10" t="s">
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="4" t="s">
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="28" t="s">
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AN21" s="23"/>
-      <c r="AO21" s="29" t="s">
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="AP21" s="30"/>
+      <c r="AP21" s="26"/>
     </row>
     <row r="22" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>10</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="11"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="7"/>
-      <c r="AK22" s="6"/>
-      <c r="AL22" s="7"/>
-      <c r="AM22" s="31"/>
-      <c r="AN22" s="25"/>
-      <c r="AO22" s="32"/>
-      <c r="AP22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="27"/>
+      <c r="AP22" s="28"/>
     </row>
     <row r="23" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>11</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="31" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="11"/>
-      <c r="AJ23" s="7"/>
-      <c r="AK23" s="6"/>
-      <c r="AL23" s="7"/>
-      <c r="AM23" s="31"/>
-      <c r="AN23" s="25"/>
-      <c r="AO23" s="32"/>
-      <c r="AP23" s="33"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="15"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="27"/>
+      <c r="AP23" s="28"/>
     </row>
     <row r="24" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>12</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="11"/>
-      <c r="AG24" s="11"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="11"/>
-      <c r="AJ24" s="7"/>
-      <c r="AK24" s="6"/>
-      <c r="AL24" s="7"/>
-      <c r="AM24" s="31"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="32"/>
-      <c r="AP24" s="33"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="6"/>
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="27"/>
+      <c r="AP24" s="28"/>
     </row>
     <row r="25" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>13</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="37" t="s">
+      <c r="C25" s="23"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="6"/>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="11"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="11"/>
-      <c r="AJ25" s="7"/>
-      <c r="AK25" s="6"/>
-      <c r="AL25" s="7"/>
-      <c r="AM25" s="31"/>
-      <c r="AN25" s="25"/>
-      <c r="AO25" s="32"/>
-      <c r="AP25" s="33"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="13"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="6"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="27"/>
+      <c r="AP25" s="28"/>
     </row>
     <row r="26" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>14</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="6"/>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="11"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="11"/>
-      <c r="AJ26" s="7"/>
-      <c r="AK26" s="6"/>
-      <c r="AL26" s="7"/>
-      <c r="AM26" s="31"/>
-      <c r="AN26" s="25"/>
-      <c r="AO26" s="32"/>
-      <c r="AP26" s="33"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="15"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="6"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="27"/>
+      <c r="AP26" s="28"/>
     </row>
     <row r="27" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>15</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="6"/>
-      <c r="AF27" s="11"/>
-      <c r="AG27" s="11"/>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="11"/>
-      <c r="AJ27" s="7"/>
-      <c r="AK27" s="6"/>
-      <c r="AL27" s="7"/>
-      <c r="AM27" s="31"/>
-      <c r="AN27" s="25"/>
-      <c r="AO27" s="32"/>
-      <c r="AP27" s="33"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="6"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="27"/>
+      <c r="AP27" s="28"/>
     </row>
     <row r="28" spans="2:44" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>16</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="9"/>
-      <c r="AE28" s="8"/>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="12"/>
-      <c r="AJ28" s="9"/>
-      <c r="AK28" s="8"/>
-      <c r="AL28" s="9"/>
-      <c r="AM28" s="34"/>
-      <c r="AN28" s="27"/>
-      <c r="AO28" s="35"/>
-      <c r="AP28" s="36"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="18"/>
+      <c r="AK28" s="16"/>
+      <c r="AL28" s="18"/>
+      <c r="AM28" s="8"/>
+      <c r="AN28" s="9"/>
+      <c r="AO28" s="29"/>
+      <c r="AP28" s="30"/>
     </row>
     <row r="29" spans="2:44" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C29">
@@ -2301,70 +2307,70 @@
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="4" t="s">
+      <c r="D30" s="5"/>
+      <c r="E30" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="4" t="s">
+      <c r="F30" s="12"/>
+      <c r="G30" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="4" t="s">
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="4" t="s">
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="4" t="s">
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T30" s="5"/>
-      <c r="U30" s="4" t="s">
+      <c r="T30" s="12"/>
+      <c r="U30" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="V30" s="5"/>
-      <c r="W30" s="4" t="s">
+      <c r="V30" s="12"/>
+      <c r="W30" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="4" t="s">
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="10"/>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="4" t="s">
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="4" t="s">
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AJ30" s="10"/>
-      <c r="AK30" s="10"/>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="4" t="s">
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AN30" s="10"/>
-      <c r="AO30" s="10"/>
-      <c r="AP30" s="41"/>
+      <c r="AN30" s="11"/>
+      <c r="AO30" s="11"/>
+      <c r="AP30" s="19"/>
       <c r="AR30" t="s">
         <v>1</v>
       </c>
@@ -2373,46 +2379,46 @@
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="11"/>
-      <c r="AE31" s="11"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="6"/>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="6"/>
-      <c r="AJ31" s="11"/>
-      <c r="AK31" s="11"/>
-      <c r="AL31" s="7"/>
-      <c r="AM31" s="6"/>
-      <c r="AN31" s="11"/>
-      <c r="AO31" s="11"/>
-      <c r="AP31" s="42"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="13"/>
+      <c r="AJ31" s="14"/>
+      <c r="AK31" s="14"/>
+      <c r="AL31" s="15"/>
+      <c r="AM31" s="13"/>
+      <c r="AN31" s="14"/>
+      <c r="AO31" s="14"/>
+      <c r="AP31" s="20"/>
       <c r="AR31" t="s">
         <v>2</v>
       </c>
@@ -2421,46 +2427,46 @@
       <c r="B32">
         <v>3</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="11"/>
-      <c r="AE32" s="11"/>
-      <c r="AF32" s="7"/>
-      <c r="AG32" s="6"/>
-      <c r="AH32" s="7"/>
-      <c r="AI32" s="6"/>
-      <c r="AJ32" s="11"/>
-      <c r="AK32" s="11"/>
-      <c r="AL32" s="7"/>
-      <c r="AM32" s="6"/>
-      <c r="AN32" s="11"/>
-      <c r="AO32" s="11"/>
-      <c r="AP32" s="42"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="14"/>
+      <c r="AK32" s="14"/>
+      <c r="AL32" s="15"/>
+      <c r="AM32" s="13"/>
+      <c r="AN32" s="14"/>
+      <c r="AO32" s="14"/>
+      <c r="AP32" s="20"/>
       <c r="AR32" s="1" t="s">
         <v>22</v>
       </c>
@@ -2469,46 +2475,46 @@
       <c r="B33">
         <v>4</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="11"/>
-      <c r="AF33" s="7"/>
-      <c r="AG33" s="6"/>
-      <c r="AH33" s="7"/>
-      <c r="AI33" s="6"/>
-      <c r="AJ33" s="11"/>
-      <c r="AK33" s="11"/>
-      <c r="AL33" s="7"/>
-      <c r="AM33" s="6"/>
-      <c r="AN33" s="11"/>
-      <c r="AO33" s="11"/>
-      <c r="AP33" s="42"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="15"/>
+      <c r="AI33" s="13"/>
+      <c r="AJ33" s="14"/>
+      <c r="AK33" s="14"/>
+      <c r="AL33" s="15"/>
+      <c r="AM33" s="13"/>
+      <c r="AN33" s="14"/>
+      <c r="AO33" s="14"/>
+      <c r="AP33" s="20"/>
       <c r="AR33" s="1" t="s">
         <v>3</v>
       </c>
@@ -2517,46 +2523,46 @@
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="6"/>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="11"/>
-      <c r="AF34" s="7"/>
-      <c r="AG34" s="6"/>
-      <c r="AH34" s="7"/>
-      <c r="AI34" s="6"/>
-      <c r="AJ34" s="11"/>
-      <c r="AK34" s="11"/>
-      <c r="AL34" s="7"/>
-      <c r="AM34" s="6"/>
-      <c r="AN34" s="11"/>
-      <c r="AO34" s="11"/>
-      <c r="AP34" s="42"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="13"/>
+      <c r="AJ34" s="14"/>
+      <c r="AK34" s="14"/>
+      <c r="AL34" s="15"/>
+      <c r="AM34" s="13"/>
+      <c r="AN34" s="14"/>
+      <c r="AO34" s="14"/>
+      <c r="AP34" s="20"/>
       <c r="AR34" s="1" t="s">
         <v>4</v>
       </c>
@@ -2565,46 +2571,46 @@
       <c r="B35">
         <v>6</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="11"/>
-      <c r="AB35" s="7"/>
-      <c r="AC35" s="6"/>
-      <c r="AD35" s="11"/>
-      <c r="AE35" s="11"/>
-      <c r="AF35" s="7"/>
-      <c r="AG35" s="6"/>
-      <c r="AH35" s="7"/>
-      <c r="AI35" s="6"/>
-      <c r="AJ35" s="11"/>
-      <c r="AK35" s="11"/>
-      <c r="AL35" s="7"/>
-      <c r="AM35" s="6"/>
-      <c r="AN35" s="11"/>
-      <c r="AO35" s="11"/>
-      <c r="AP35" s="42"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="15"/>
+      <c r="AI35" s="13"/>
+      <c r="AJ35" s="14"/>
+      <c r="AK35" s="14"/>
+      <c r="AL35" s="15"/>
+      <c r="AM35" s="13"/>
+      <c r="AN35" s="14"/>
+      <c r="AO35" s="14"/>
+      <c r="AP35" s="20"/>
       <c r="AR35" s="1" t="s">
         <v>5</v>
       </c>
@@ -2613,46 +2619,46 @@
       <c r="B36">
         <v>7</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="11"/>
-      <c r="AB36" s="7"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="11"/>
-      <c r="AE36" s="11"/>
-      <c r="AF36" s="7"/>
-      <c r="AG36" s="6"/>
-      <c r="AH36" s="7"/>
-      <c r="AI36" s="6"/>
-      <c r="AJ36" s="11"/>
-      <c r="AK36" s="11"/>
-      <c r="AL36" s="7"/>
-      <c r="AM36" s="6"/>
-      <c r="AN36" s="11"/>
-      <c r="AO36" s="11"/>
-      <c r="AP36" s="42"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="15"/>
+      <c r="AI36" s="13"/>
+      <c r="AJ36" s="14"/>
+      <c r="AK36" s="14"/>
+      <c r="AL36" s="15"/>
+      <c r="AM36" s="13"/>
+      <c r="AN36" s="14"/>
+      <c r="AO36" s="14"/>
+      <c r="AP36" s="20"/>
       <c r="AR36" s="1" t="s">
         <v>6</v>
       </c>
@@ -2661,46 +2667,46 @@
       <c r="B37">
         <v>8</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
-      <c r="AA37" s="12"/>
-      <c r="AB37" s="9"/>
-      <c r="AC37" s="8"/>
-      <c r="AD37" s="12"/>
-      <c r="AE37" s="12"/>
-      <c r="AF37" s="9"/>
-      <c r="AG37" s="8"/>
-      <c r="AH37" s="9"/>
-      <c r="AI37" s="8"/>
-      <c r="AJ37" s="12"/>
-      <c r="AK37" s="12"/>
-      <c r="AL37" s="9"/>
-      <c r="AM37" s="8"/>
-      <c r="AN37" s="12"/>
-      <c r="AO37" s="12"/>
-      <c r="AP37" s="43"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="17"/>
+      <c r="AE37" s="17"/>
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="16"/>
+      <c r="AH37" s="18"/>
+      <c r="AI37" s="16"/>
+      <c r="AJ37" s="17"/>
+      <c r="AK37" s="17"/>
+      <c r="AL37" s="18"/>
+      <c r="AM37" s="16"/>
+      <c r="AN37" s="17"/>
+      <c r="AO37" s="17"/>
+      <c r="AP37" s="21"/>
       <c r="AR37" s="1" t="s">
         <v>7</v>
       </c>
@@ -2709,68 +2715,68 @@
       <c r="B38">
         <v>9</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="10" t="s">
+      <c r="D38" s="12"/>
+      <c r="E38" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="4" t="s">
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="4" t="s">
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="V38" s="5"/>
-      <c r="W38" s="4" t="s">
+      <c r="V38" s="12"/>
+      <c r="W38" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="28" t="s">
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="AB38" s="23"/>
-      <c r="AC38" s="28" t="s">
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AD38" s="23"/>
-      <c r="AE38" s="28" t="s">
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AF38" s="23"/>
-      <c r="AG38" s="4" t="s">
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="4" t="s">
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AJ38" s="10"/>
-      <c r="AK38" s="10"/>
-      <c r="AL38" s="5"/>
-      <c r="AM38" s="28" t="s">
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11"/>
+      <c r="AL38" s="12"/>
+      <c r="AM38" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AN38" s="29"/>
-      <c r="AO38" s="29"/>
-      <c r="AP38" s="30"/>
+      <c r="AN38" s="25"/>
+      <c r="AO38" s="25"/>
+      <c r="AP38" s="26"/>
       <c r="AR38" s="1" t="s">
         <v>8</v>
       </c>
@@ -2779,46 +2785,46 @@
       <c r="B39">
         <v>10</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="11"/>
-      <c r="Z39" s="7"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="25"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="7"/>
       <c r="AC39" s="39"/>
-      <c r="AD39" s="40"/>
-      <c r="AE39" s="31"/>
-      <c r="AF39" s="25"/>
-      <c r="AG39" s="6"/>
-      <c r="AH39" s="7"/>
-      <c r="AI39" s="6"/>
-      <c r="AJ39" s="11"/>
-      <c r="AK39" s="11"/>
-      <c r="AL39" s="7"/>
-      <c r="AM39" s="31"/>
-      <c r="AN39" s="32"/>
-      <c r="AO39" s="32"/>
-      <c r="AP39" s="33"/>
+      <c r="AD39" s="33"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="15"/>
+      <c r="AI39" s="13"/>
+      <c r="AJ39" s="14"/>
+      <c r="AK39" s="14"/>
+      <c r="AL39" s="15"/>
+      <c r="AM39" s="6"/>
+      <c r="AN39" s="27"/>
+      <c r="AO39" s="27"/>
+      <c r="AP39" s="28"/>
       <c r="AR39" s="1" t="s">
         <v>9</v>
       </c>
@@ -2827,48 +2833,48 @@
       <c r="B40">
         <v>11</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="14"/>
-      <c r="Y40" s="14"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="31"/>
-      <c r="AB40" s="25"/>
-      <c r="AC40" s="31" t="s">
+      <c r="C40" s="23"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="40"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="41"/>
+      <c r="Z40" s="42"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="AD40" s="25"/>
-      <c r="AE40" s="31"/>
-      <c r="AF40" s="25"/>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="7"/>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="11"/>
-      <c r="AK40" s="11"/>
-      <c r="AL40" s="7"/>
-      <c r="AM40" s="31"/>
-      <c r="AN40" s="32"/>
-      <c r="AO40" s="32"/>
-      <c r="AP40" s="33"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="15"/>
+      <c r="AI40" s="13"/>
+      <c r="AJ40" s="14"/>
+      <c r="AK40" s="14"/>
+      <c r="AL40" s="15"/>
+      <c r="AM40" s="6"/>
+      <c r="AN40" s="27"/>
+      <c r="AO40" s="27"/>
+      <c r="AP40" s="28"/>
       <c r="AR40" s="1" t="s">
         <v>10</v>
       </c>
@@ -2877,48 +2883,48 @@
       <c r="B41">
         <v>12</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="16" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="18"/>
-      <c r="AA41" s="31"/>
-      <c r="AB41" s="25"/>
-      <c r="AC41" s="31"/>
-      <c r="AD41" s="25"/>
-      <c r="AE41" s="31"/>
-      <c r="AF41" s="25"/>
-      <c r="AG41" s="6"/>
-      <c r="AH41" s="7"/>
-      <c r="AI41" s="6"/>
-      <c r="AJ41" s="11"/>
-      <c r="AK41" s="11"/>
-      <c r="AL41" s="7"/>
-      <c r="AM41" s="31"/>
-      <c r="AN41" s="32"/>
-      <c r="AO41" s="32"/>
-      <c r="AP41" s="33"/>
+      <c r="X41" s="44"/>
+      <c r="Y41" s="44"/>
+      <c r="Z41" s="45"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="13"/>
+      <c r="AH41" s="15"/>
+      <c r="AI41" s="13"/>
+      <c r="AJ41" s="14"/>
+      <c r="AK41" s="14"/>
+      <c r="AL41" s="15"/>
+      <c r="AM41" s="6"/>
+      <c r="AN41" s="27"/>
+      <c r="AO41" s="27"/>
+      <c r="AP41" s="28"/>
       <c r="AR41" s="1" t="s">
         <v>11</v>
       </c>
@@ -2927,48 +2933,48 @@
       <c r="B42">
         <v>13</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="14"/>
-      <c r="Y42" s="14"/>
-      <c r="Z42" s="15"/>
-      <c r="AA42" s="31"/>
-      <c r="AB42" s="25"/>
-      <c r="AC42" s="37" t="s">
+      <c r="C42" s="23"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="40"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="42"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="AD42" s="38"/>
-      <c r="AE42" s="31"/>
-      <c r="AF42" s="25"/>
-      <c r="AG42" s="6"/>
-      <c r="AH42" s="7"/>
-      <c r="AI42" s="6"/>
-      <c r="AJ42" s="11"/>
-      <c r="AK42" s="11"/>
-      <c r="AL42" s="7"/>
-      <c r="AM42" s="31"/>
-      <c r="AN42" s="32"/>
-      <c r="AO42" s="32"/>
-      <c r="AP42" s="33"/>
+      <c r="AD42" s="36"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="13"/>
+      <c r="AH42" s="15"/>
+      <c r="AI42" s="13"/>
+      <c r="AJ42" s="14"/>
+      <c r="AK42" s="14"/>
+      <c r="AL42" s="15"/>
+      <c r="AM42" s="6"/>
+      <c r="AN42" s="27"/>
+      <c r="AO42" s="27"/>
+      <c r="AP42" s="28"/>
       <c r="AR42" s="1" t="s">
         <v>12</v>
       </c>
@@ -2977,48 +2983,48 @@
       <c r="B43">
         <v>14</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="16" t="s">
+      <c r="C43" s="23"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="18"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="25"/>
-      <c r="AC43" s="31"/>
-      <c r="AD43" s="25"/>
-      <c r="AE43" s="31"/>
-      <c r="AF43" s="25"/>
-      <c r="AG43" s="6"/>
-      <c r="AH43" s="7"/>
-      <c r="AI43" s="6"/>
-      <c r="AJ43" s="11"/>
-      <c r="AK43" s="11"/>
-      <c r="AL43" s="7"/>
-      <c r="AM43" s="31"/>
-      <c r="AN43" s="32"/>
-      <c r="AO43" s="32"/>
-      <c r="AP43" s="33"/>
+      <c r="X43" s="44"/>
+      <c r="Y43" s="44"/>
+      <c r="Z43" s="45"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="13"/>
+      <c r="AH43" s="15"/>
+      <c r="AI43" s="13"/>
+      <c r="AJ43" s="14"/>
+      <c r="AK43" s="14"/>
+      <c r="AL43" s="15"/>
+      <c r="AM43" s="6"/>
+      <c r="AN43" s="27"/>
+      <c r="AO43" s="27"/>
+      <c r="AP43" s="28"/>
       <c r="AR43" s="1" t="s">
         <v>13</v>
       </c>
@@ -3027,46 +3033,46 @@
       <c r="B44">
         <v>15</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="11"/>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="31"/>
-      <c r="AB44" s="25"/>
-      <c r="AC44" s="31"/>
-      <c r="AD44" s="25"/>
-      <c r="AE44" s="31"/>
-      <c r="AF44" s="25"/>
-      <c r="AG44" s="6"/>
-      <c r="AH44" s="7"/>
-      <c r="AI44" s="6"/>
-      <c r="AJ44" s="11"/>
-      <c r="AK44" s="11"/>
-      <c r="AL44" s="7"/>
-      <c r="AM44" s="31"/>
-      <c r="AN44" s="32"/>
-      <c r="AO44" s="32"/>
-      <c r="AP44" s="33"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="14"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="6"/>
+      <c r="AF44" s="7"/>
+      <c r="AG44" s="13"/>
+      <c r="AH44" s="15"/>
+      <c r="AI44" s="13"/>
+      <c r="AJ44" s="14"/>
+      <c r="AK44" s="14"/>
+      <c r="AL44" s="15"/>
+      <c r="AM44" s="6"/>
+      <c r="AN44" s="27"/>
+      <c r="AO44" s="27"/>
+      <c r="AP44" s="28"/>
       <c r="AR44" s="1" t="s">
         <v>14</v>
       </c>
@@ -3075,46 +3081,46 @@
       <c r="B45">
         <v>16</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="12"/>
-      <c r="S45" s="12"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="12"/>
-      <c r="Y45" s="12"/>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="34"/>
-      <c r="AB45" s="27"/>
-      <c r="AC45" s="34"/>
-      <c r="AD45" s="27"/>
-      <c r="AE45" s="34"/>
-      <c r="AF45" s="27"/>
-      <c r="AG45" s="8"/>
-      <c r="AH45" s="9"/>
-      <c r="AI45" s="8"/>
-      <c r="AJ45" s="12"/>
-      <c r="AK45" s="12"/>
-      <c r="AL45" s="9"/>
-      <c r="AM45" s="34"/>
-      <c r="AN45" s="35"/>
-      <c r="AO45" s="35"/>
-      <c r="AP45" s="36"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="17"/>
+      <c r="Y45" s="17"/>
+      <c r="Z45" s="18"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="9"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="9"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="9"/>
+      <c r="AG45" s="16"/>
+      <c r="AH45" s="18"/>
+      <c r="AI45" s="16"/>
+      <c r="AJ45" s="17"/>
+      <c r="AK45" s="17"/>
+      <c r="AL45" s="18"/>
+      <c r="AM45" s="8"/>
+      <c r="AN45" s="29"/>
+      <c r="AO45" s="29"/>
+      <c r="AP45" s="30"/>
       <c r="AR45" s="1" t="s">
         <v>15</v>
       </c>
@@ -3253,113 +3259,113 @@
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="4" t="s">
+      <c r="D48" s="5"/>
+      <c r="E48" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="4" t="s">
+      <c r="F48" s="12"/>
+      <c r="G48" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="4" t="s">
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="4" t="s">
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="4" t="s">
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T48" s="5"/>
-      <c r="U48" s="4" t="s">
+      <c r="T48" s="12"/>
+      <c r="U48" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="V48" s="5"/>
-      <c r="W48" s="4" t="s">
+      <c r="V48" s="12"/>
+      <c r="W48" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="10"/>
-      <c r="AB48" s="5"/>
-      <c r="AC48" s="4" t="s">
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="12"/>
+      <c r="AC48" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="AD48" s="10"/>
-      <c r="AE48" s="10"/>
-      <c r="AF48" s="10"/>
-      <c r="AG48" s="10"/>
-      <c r="AH48" s="5"/>
-      <c r="AI48" s="4" t="s">
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="11"/>
+      <c r="AF48" s="11"/>
+      <c r="AG48" s="11"/>
+      <c r="AH48" s="12"/>
+      <c r="AI48" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AJ48" s="10"/>
-      <c r="AK48" s="10"/>
-      <c r="AL48" s="5"/>
-      <c r="AM48" s="4" t="s">
+      <c r="AJ48" s="11"/>
+      <c r="AK48" s="11"/>
+      <c r="AL48" s="12"/>
+      <c r="AM48" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AN48" s="10"/>
-      <c r="AO48" s="10"/>
-      <c r="AP48" s="41"/>
+      <c r="AN48" s="11"/>
+      <c r="AO48" s="11"/>
+      <c r="AP48" s="19"/>
     </row>
     <row r="49" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>2</v>
       </c>
-      <c r="C49" s="44"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="11"/>
-      <c r="Z49" s="11"/>
-      <c r="AA49" s="11"/>
-      <c r="AB49" s="7"/>
-      <c r="AC49" s="6"/>
-      <c r="AD49" s="46"/>
-      <c r="AE49" s="46"/>
-      <c r="AF49" s="46"/>
-      <c r="AG49" s="46"/>
-      <c r="AH49" s="7"/>
-      <c r="AI49" s="6"/>
-      <c r="AJ49" s="11"/>
-      <c r="AK49" s="11"/>
-      <c r="AL49" s="7"/>
-      <c r="AM49" s="6"/>
-      <c r="AN49" s="11"/>
-      <c r="AO49" s="11"/>
-      <c r="AP49" s="42"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="14"/>
+      <c r="Z49" s="14"/>
+      <c r="AA49" s="14"/>
+      <c r="AB49" s="15"/>
+      <c r="AC49" s="13"/>
+      <c r="AD49" s="14"/>
+      <c r="AE49" s="14"/>
+      <c r="AF49" s="14"/>
+      <c r="AG49" s="14"/>
+      <c r="AH49" s="15"/>
+      <c r="AI49" s="13"/>
+      <c r="AJ49" s="14"/>
+      <c r="AK49" s="14"/>
+      <c r="AL49" s="15"/>
+      <c r="AM49" s="13"/>
+      <c r="AN49" s="14"/>
+      <c r="AO49" s="14"/>
+      <c r="AP49" s="20"/>
       <c r="AR49" t="s">
         <v>37</v>
       </c>
@@ -3368,48 +3374,48 @@
       <c r="B50">
         <v>3</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="11"/>
-      <c r="Y50" s="11"/>
-      <c r="Z50" s="11"/>
-      <c r="AA50" s="11"/>
-      <c r="AB50" s="7"/>
-      <c r="AC50" s="6"/>
-      <c r="AD50" s="46"/>
-      <c r="AE50" s="46"/>
-      <c r="AF50" s="46"/>
-      <c r="AG50" s="46"/>
-      <c r="AH50" s="7"/>
-      <c r="AI50" s="6"/>
-      <c r="AJ50" s="11"/>
-      <c r="AK50" s="11"/>
-      <c r="AL50" s="7"/>
-      <c r="AM50" s="6"/>
-      <c r="AN50" s="11"/>
-      <c r="AO50" s="11"/>
-      <c r="AP50" s="42"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="14"/>
+      <c r="Y50" s="14"/>
+      <c r="Z50" s="14"/>
+      <c r="AA50" s="14"/>
+      <c r="AB50" s="15"/>
+      <c r="AC50" s="13"/>
+      <c r="AD50" s="14"/>
+      <c r="AE50" s="14"/>
+      <c r="AF50" s="14"/>
+      <c r="AG50" s="14"/>
+      <c r="AH50" s="15"/>
+      <c r="AI50" s="13"/>
+      <c r="AJ50" s="14"/>
+      <c r="AK50" s="14"/>
+      <c r="AL50" s="15"/>
+      <c r="AM50" s="13"/>
+      <c r="AN50" s="14"/>
+      <c r="AO50" s="14"/>
+      <c r="AP50" s="20"/>
       <c r="AR50" t="s">
         <v>38</v>
       </c>
@@ -3418,633 +3424,668 @@
       <c r="B51">
         <v>4</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="7"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="11"/>
-      <c r="Y51" s="11"/>
-      <c r="Z51" s="11"/>
-      <c r="AA51" s="11"/>
-      <c r="AB51" s="7"/>
-      <c r="AC51" s="6"/>
-      <c r="AD51" s="46"/>
-      <c r="AE51" s="46"/>
-      <c r="AF51" s="46"/>
-      <c r="AG51" s="46"/>
-      <c r="AH51" s="7"/>
-      <c r="AI51" s="6"/>
-      <c r="AJ51" s="11"/>
-      <c r="AK51" s="11"/>
-      <c r="AL51" s="7"/>
-      <c r="AM51" s="6"/>
-      <c r="AN51" s="11"/>
-      <c r="AO51" s="11"/>
-      <c r="AP51" s="42"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="14"/>
+      <c r="Y51" s="14"/>
+      <c r="Z51" s="14"/>
+      <c r="AA51" s="14"/>
+      <c r="AB51" s="15"/>
+      <c r="AC51" s="13"/>
+      <c r="AD51" s="14"/>
+      <c r="AE51" s="14"/>
+      <c r="AF51" s="14"/>
+      <c r="AG51" s="14"/>
+      <c r="AH51" s="15"/>
+      <c r="AI51" s="13"/>
+      <c r="AJ51" s="14"/>
+      <c r="AK51" s="14"/>
+      <c r="AL51" s="15"/>
+      <c r="AM51" s="13"/>
+      <c r="AN51" s="14"/>
+      <c r="AO51" s="14"/>
+      <c r="AP51" s="20"/>
     </row>
     <row r="52" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>5</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C52" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D52" s="38"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="11"/>
-      <c r="Y52" s="11"/>
-      <c r="Z52" s="11"/>
-      <c r="AA52" s="11"/>
-      <c r="AB52" s="7"/>
-      <c r="AC52" s="6"/>
-      <c r="AD52" s="46"/>
-      <c r="AE52" s="46"/>
-      <c r="AF52" s="46"/>
-      <c r="AG52" s="46"/>
-      <c r="AH52" s="7"/>
-      <c r="AI52" s="6"/>
-      <c r="AJ52" s="11"/>
-      <c r="AK52" s="11"/>
-      <c r="AL52" s="7"/>
-      <c r="AM52" s="6"/>
-      <c r="AN52" s="11"/>
-      <c r="AO52" s="11"/>
-      <c r="AP52" s="42"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="13"/>
+      <c r="X52" s="14"/>
+      <c r="Y52" s="14"/>
+      <c r="Z52" s="14"/>
+      <c r="AA52" s="14"/>
+      <c r="AB52" s="15"/>
+      <c r="AC52" s="13"/>
+      <c r="AD52" s="14"/>
+      <c r="AE52" s="14"/>
+      <c r="AF52" s="14"/>
+      <c r="AG52" s="14"/>
+      <c r="AH52" s="15"/>
+      <c r="AI52" s="13"/>
+      <c r="AJ52" s="14"/>
+      <c r="AK52" s="14"/>
+      <c r="AL52" s="15"/>
+      <c r="AM52" s="13"/>
+      <c r="AN52" s="14"/>
+      <c r="AO52" s="14"/>
+      <c r="AP52" s="20"/>
     </row>
     <row r="53" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>6</v>
       </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="7"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="7"/>
-      <c r="AC53" s="6"/>
-      <c r="AD53" s="46"/>
-      <c r="AE53" s="46"/>
-      <c r="AF53" s="46"/>
-      <c r="AG53" s="46"/>
-      <c r="AH53" s="7"/>
-      <c r="AI53" s="6"/>
-      <c r="AJ53" s="11"/>
-      <c r="AK53" s="11"/>
-      <c r="AL53" s="7"/>
-      <c r="AM53" s="6"/>
-      <c r="AN53" s="11"/>
-      <c r="AO53" s="11"/>
-      <c r="AP53" s="42"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="14"/>
+      <c r="Y53" s="14"/>
+      <c r="Z53" s="14"/>
+      <c r="AA53" s="14"/>
+      <c r="AB53" s="15"/>
+      <c r="AC53" s="13"/>
+      <c r="AD53" s="14"/>
+      <c r="AE53" s="14"/>
+      <c r="AF53" s="14"/>
+      <c r="AG53" s="14"/>
+      <c r="AH53" s="15"/>
+      <c r="AI53" s="13"/>
+      <c r="AJ53" s="14"/>
+      <c r="AK53" s="14"/>
+      <c r="AL53" s="15"/>
+      <c r="AM53" s="13"/>
+      <c r="AN53" s="14"/>
+      <c r="AO53" s="14"/>
+      <c r="AP53" s="20"/>
     </row>
     <row r="54" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>7</v>
       </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="7"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="11"/>
-      <c r="Y54" s="11"/>
-      <c r="Z54" s="11"/>
-      <c r="AA54" s="11"/>
-      <c r="AB54" s="7"/>
-      <c r="AC54" s="6"/>
-      <c r="AD54" s="46"/>
-      <c r="AE54" s="46"/>
-      <c r="AF54" s="46"/>
-      <c r="AG54" s="46"/>
-      <c r="AH54" s="7"/>
-      <c r="AI54" s="6"/>
-      <c r="AJ54" s="11"/>
-      <c r="AK54" s="11"/>
-      <c r="AL54" s="7"/>
-      <c r="AM54" s="6"/>
-      <c r="AN54" s="11"/>
-      <c r="AO54" s="11"/>
-      <c r="AP54" s="42"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="15"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="15"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="14"/>
+      <c r="Y54" s="14"/>
+      <c r="Z54" s="14"/>
+      <c r="AA54" s="14"/>
+      <c r="AB54" s="15"/>
+      <c r="AC54" s="13"/>
+      <c r="AD54" s="14"/>
+      <c r="AE54" s="14"/>
+      <c r="AF54" s="14"/>
+      <c r="AG54" s="14"/>
+      <c r="AH54" s="15"/>
+      <c r="AI54" s="13"/>
+      <c r="AJ54" s="14"/>
+      <c r="AK54" s="14"/>
+      <c r="AL54" s="15"/>
+      <c r="AM54" s="13"/>
+      <c r="AN54" s="14"/>
+      <c r="AO54" s="14"/>
+      <c r="AP54" s="20"/>
     </row>
     <row r="55" spans="2:44" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>8</v>
       </c>
-      <c r="C55" s="26"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="9"/>
-      <c r="W55" s="8"/>
-      <c r="X55" s="12"/>
-      <c r="Y55" s="12"/>
-      <c r="Z55" s="12"/>
-      <c r="AA55" s="12"/>
-      <c r="AB55" s="9"/>
-      <c r="AC55" s="8"/>
-      <c r="AD55" s="12"/>
-      <c r="AE55" s="12"/>
-      <c r="AF55" s="12"/>
-      <c r="AG55" s="12"/>
-      <c r="AH55" s="9"/>
-      <c r="AI55" s="8"/>
-      <c r="AJ55" s="12"/>
-      <c r="AK55" s="12"/>
-      <c r="AL55" s="9"/>
-      <c r="AM55" s="8"/>
-      <c r="AN55" s="12"/>
-      <c r="AO55" s="12"/>
-      <c r="AP55" s="43"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="17"/>
+      <c r="Y55" s="17"/>
+      <c r="Z55" s="17"/>
+      <c r="AA55" s="17"/>
+      <c r="AB55" s="18"/>
+      <c r="AC55" s="16"/>
+      <c r="AD55" s="17"/>
+      <c r="AE55" s="17"/>
+      <c r="AF55" s="17"/>
+      <c r="AG55" s="17"/>
+      <c r="AH55" s="18"/>
+      <c r="AI55" s="16"/>
+      <c r="AJ55" s="17"/>
+      <c r="AK55" s="17"/>
+      <c r="AL55" s="18"/>
+      <c r="AM55" s="16"/>
+      <c r="AN55" s="17"/>
+      <c r="AO55" s="17"/>
+      <c r="AP55" s="21"/>
     </row>
     <row r="56" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>9</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="10" t="s">
+      <c r="D56" s="12"/>
+      <c r="E56" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="4" t="s">
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="R56" s="5"/>
-      <c r="S56" s="4" t="s">
+      <c r="R56" s="12"/>
+      <c r="S56" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="4" t="s">
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="4" t="s">
+      <c r="X56" s="12"/>
+      <c r="Y56" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Z56" s="10"/>
-      <c r="AA56" s="10"/>
-      <c r="AB56" s="5"/>
-      <c r="AC56" s="28" t="s">
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="12"/>
+      <c r="AC56" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="AD56" s="23"/>
-      <c r="AE56" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF56" s="5"/>
-      <c r="AG56" s="4" t="s">
+      <c r="AF56" s="12"/>
+      <c r="AG56" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH56" s="12"/>
+      <c r="AI56" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AH56" s="5"/>
-      <c r="AI56" s="4" t="s">
+      <c r="AJ56" s="5"/>
+      <c r="AK56" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AJ56" s="10"/>
-      <c r="AK56" s="10"/>
-      <c r="AL56" s="5"/>
-      <c r="AM56" s="28" t="s">
+      <c r="AL56" s="11"/>
+      <c r="AM56" s="11"/>
+      <c r="AN56" s="12"/>
+      <c r="AO56" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="AN56" s="29"/>
-      <c r="AO56" s="29"/>
-      <c r="AP56" s="30"/>
+      <c r="AP56" s="26"/>
     </row>
     <row r="57" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>10</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="11"/>
-      <c r="V57" s="7"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="6"/>
-      <c r="Z57" s="11"/>
-      <c r="AA57" s="11"/>
-      <c r="AB57" s="7"/>
-      <c r="AC57" s="31"/>
-      <c r="AD57" s="25"/>
-      <c r="AE57" s="6"/>
-      <c r="AF57" s="7"/>
-      <c r="AG57" s="6"/>
-      <c r="AH57" s="7"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="14"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="13"/>
+      <c r="Z57" s="14"/>
+      <c r="AA57" s="14"/>
+      <c r="AB57" s="15"/>
+      <c r="AC57" s="6"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="13"/>
+      <c r="AF57" s="15"/>
+      <c r="AG57" s="13"/>
+      <c r="AH57" s="15"/>
       <c r="AI57" s="6"/>
-      <c r="AJ57" s="11"/>
-      <c r="AK57" s="11"/>
-      <c r="AL57" s="7"/>
-      <c r="AM57" s="31"/>
-      <c r="AN57" s="32"/>
-      <c r="AO57" s="32"/>
-      <c r="AP57" s="33"/>
+      <c r="AJ57" s="7"/>
+      <c r="AK57" s="13"/>
+      <c r="AL57" s="47"/>
+      <c r="AM57" s="47"/>
+      <c r="AN57" s="15"/>
+      <c r="AO57" s="46"/>
+      <c r="AP57" s="28"/>
     </row>
     <row r="58" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>11</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11"/>
-      <c r="V58" s="7"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="7"/>
-      <c r="Y58" s="13"/>
-      <c r="Z58" s="14"/>
-      <c r="AA58" s="14"/>
-      <c r="AB58" s="15"/>
-      <c r="AC58" s="31"/>
-      <c r="AD58" s="25"/>
-      <c r="AE58" s="6"/>
-      <c r="AF58" s="7"/>
-      <c r="AG58" s="6"/>
-      <c r="AH58" s="7"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="15"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="14"/>
+      <c r="U58" s="14"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="13"/>
+      <c r="X58" s="15"/>
+      <c r="Y58" s="40"/>
+      <c r="Z58" s="41"/>
+      <c r="AA58" s="41"/>
+      <c r="AB58" s="42"/>
+      <c r="AC58" s="6"/>
+      <c r="AD58" s="7"/>
+      <c r="AE58" s="13"/>
+      <c r="AF58" s="15"/>
+      <c r="AG58" s="13"/>
+      <c r="AH58" s="15"/>
       <c r="AI58" s="6"/>
-      <c r="AJ58" s="11"/>
-      <c r="AK58" s="11"/>
-      <c r="AL58" s="7"/>
-      <c r="AM58" s="31"/>
-      <c r="AN58" s="32"/>
-      <c r="AO58" s="32"/>
-      <c r="AP58" s="33"/>
+      <c r="AJ58" s="7"/>
+      <c r="AK58" s="13"/>
+      <c r="AL58" s="47"/>
+      <c r="AM58" s="47"/>
+      <c r="AN58" s="15"/>
+      <c r="AO58" s="46"/>
+      <c r="AP58" s="28"/>
     </row>
     <row r="59" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>12</v>
       </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11"/>
-      <c r="V59" s="7"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="7"/>
-      <c r="Y59" s="16" t="s">
+      <c r="C59" s="23"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="14"/>
+      <c r="U59" s="14"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="13"/>
+      <c r="X59" s="15"/>
+      <c r="Y59" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="Z59" s="17"/>
-      <c r="AA59" s="17"/>
-      <c r="AB59" s="18"/>
-      <c r="AC59" s="31"/>
-      <c r="AD59" s="25"/>
-      <c r="AE59" s="6"/>
-      <c r="AF59" s="7"/>
-      <c r="AG59" s="6"/>
-      <c r="AH59" s="7"/>
+      <c r="Z59" s="44"/>
+      <c r="AA59" s="44"/>
+      <c r="AB59" s="45"/>
+      <c r="AC59" s="6"/>
+      <c r="AD59" s="7"/>
+      <c r="AE59" s="13"/>
+      <c r="AF59" s="15"/>
+      <c r="AG59" s="13"/>
+      <c r="AH59" s="15"/>
       <c r="AI59" s="6"/>
-      <c r="AJ59" s="11"/>
-      <c r="AK59" s="11"/>
-      <c r="AL59" s="7"/>
-      <c r="AM59" s="31"/>
-      <c r="AN59" s="32"/>
-      <c r="AO59" s="32"/>
-      <c r="AP59" s="33"/>
+      <c r="AJ59" s="7"/>
+      <c r="AK59" s="13"/>
+      <c r="AL59" s="47"/>
+      <c r="AM59" s="47"/>
+      <c r="AN59" s="15"/>
+      <c r="AO59" s="46"/>
+      <c r="AP59" s="28"/>
     </row>
     <row r="60" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>13</v>
       </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="11"/>
-      <c r="U60" s="11"/>
-      <c r="V60" s="7"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="7"/>
-      <c r="Y60" s="13"/>
-      <c r="Z60" s="14"/>
-      <c r="AA60" s="14"/>
-      <c r="AB60" s="15"/>
-      <c r="AC60" s="31"/>
-      <c r="AD60" s="25"/>
-      <c r="AE60" s="6"/>
-      <c r="AF60" s="7"/>
-      <c r="AG60" s="6"/>
-      <c r="AH60" s="7"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="15"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="14"/>
+      <c r="U60" s="14"/>
+      <c r="V60" s="15"/>
+      <c r="W60" s="13"/>
+      <c r="X60" s="15"/>
+      <c r="Y60" s="40"/>
+      <c r="Z60" s="41"/>
+      <c r="AA60" s="41"/>
+      <c r="AB60" s="42"/>
+      <c r="AC60" s="6"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="13"/>
+      <c r="AF60" s="15"/>
+      <c r="AG60" s="13"/>
+      <c r="AH60" s="15"/>
       <c r="AI60" s="6"/>
-      <c r="AJ60" s="11"/>
-      <c r="AK60" s="11"/>
-      <c r="AL60" s="7"/>
-      <c r="AM60" s="31"/>
-      <c r="AN60" s="32"/>
-      <c r="AO60" s="32"/>
-      <c r="AP60" s="33"/>
+      <c r="AJ60" s="7"/>
+      <c r="AK60" s="13"/>
+      <c r="AL60" s="47"/>
+      <c r="AM60" s="47"/>
+      <c r="AN60" s="15"/>
+      <c r="AO60" s="46"/>
+      <c r="AP60" s="28"/>
     </row>
     <row r="61" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>14</v>
       </c>
-      <c r="C61" s="20"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="7"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11"/>
-      <c r="V61" s="7"/>
-      <c r="W61" s="6"/>
-      <c r="X61" s="7"/>
-      <c r="Y61" s="16" t="s">
+      <c r="C61" s="23"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="14"/>
+      <c r="U61" s="14"/>
+      <c r="V61" s="15"/>
+      <c r="W61" s="13"/>
+      <c r="X61" s="15"/>
+      <c r="Y61" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="Z61" s="17"/>
-      <c r="AA61" s="17"/>
-      <c r="AB61" s="18"/>
-      <c r="AC61" s="31"/>
-      <c r="AD61" s="25"/>
-      <c r="AE61" s="6"/>
-      <c r="AF61" s="7"/>
-      <c r="AG61" s="6"/>
-      <c r="AH61" s="7"/>
+      <c r="Z61" s="44"/>
+      <c r="AA61" s="44"/>
+      <c r="AB61" s="45"/>
+      <c r="AC61" s="6"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="13"/>
+      <c r="AF61" s="15"/>
+      <c r="AG61" s="13"/>
+      <c r="AH61" s="15"/>
       <c r="AI61" s="6"/>
-      <c r="AJ61" s="11"/>
-      <c r="AK61" s="11"/>
-      <c r="AL61" s="7"/>
-      <c r="AM61" s="31"/>
-      <c r="AN61" s="32"/>
-      <c r="AO61" s="32"/>
-      <c r="AP61" s="33"/>
+      <c r="AJ61" s="7"/>
+      <c r="AK61" s="13"/>
+      <c r="AL61" s="47"/>
+      <c r="AM61" s="47"/>
+      <c r="AN61" s="15"/>
+      <c r="AO61" s="46"/>
+      <c r="AP61" s="28"/>
     </row>
     <row r="62" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>15</v>
       </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="11"/>
-      <c r="U62" s="11"/>
-      <c r="V62" s="7"/>
-      <c r="W62" s="6"/>
-      <c r="X62" s="7"/>
-      <c r="Y62" s="6"/>
-      <c r="Z62" s="11"/>
-      <c r="AA62" s="11"/>
-      <c r="AB62" s="7"/>
-      <c r="AC62" s="31"/>
-      <c r="AD62" s="25"/>
-      <c r="AE62" s="6"/>
-      <c r="AF62" s="7"/>
-      <c r="AG62" s="6"/>
-      <c r="AH62" s="7"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="14"/>
+      <c r="U62" s="14"/>
+      <c r="V62" s="15"/>
+      <c r="W62" s="13"/>
+      <c r="X62" s="15"/>
+      <c r="Y62" s="13"/>
+      <c r="Z62" s="14"/>
+      <c r="AA62" s="14"/>
+      <c r="AB62" s="15"/>
+      <c r="AC62" s="6"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="13"/>
+      <c r="AF62" s="15"/>
+      <c r="AG62" s="13"/>
+      <c r="AH62" s="15"/>
       <c r="AI62" s="6"/>
-      <c r="AJ62" s="11"/>
-      <c r="AK62" s="11"/>
-      <c r="AL62" s="7"/>
-      <c r="AM62" s="31"/>
-      <c r="AN62" s="32"/>
-      <c r="AO62" s="32"/>
-      <c r="AP62" s="33"/>
+      <c r="AJ62" s="7"/>
+      <c r="AK62" s="13"/>
+      <c r="AL62" s="47"/>
+      <c r="AM62" s="47"/>
+      <c r="AN62" s="15"/>
+      <c r="AO62" s="46"/>
+      <c r="AP62" s="28"/>
     </row>
     <row r="63" spans="2:44" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>16</v>
       </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="9"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="12"/>
-      <c r="U63" s="12"/>
-      <c r="V63" s="9"/>
-      <c r="W63" s="8"/>
-      <c r="X63" s="9"/>
-      <c r="Y63" s="8"/>
-      <c r="Z63" s="12"/>
-      <c r="AA63" s="12"/>
-      <c r="AB63" s="9"/>
-      <c r="AC63" s="34"/>
-      <c r="AD63" s="27"/>
-      <c r="AE63" s="8"/>
-      <c r="AF63" s="9"/>
-      <c r="AG63" s="8"/>
-      <c r="AH63" s="9"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="17"/>
+      <c r="V63" s="18"/>
+      <c r="W63" s="16"/>
+      <c r="X63" s="18"/>
+      <c r="Y63" s="16"/>
+      <c r="Z63" s="17"/>
+      <c r="AA63" s="17"/>
+      <c r="AB63" s="18"/>
+      <c r="AC63" s="8"/>
+      <c r="AD63" s="9"/>
+      <c r="AE63" s="16"/>
+      <c r="AF63" s="18"/>
+      <c r="AG63" s="16"/>
+      <c r="AH63" s="18"/>
       <c r="AI63" s="8"/>
-      <c r="AJ63" s="12"/>
-      <c r="AK63" s="12"/>
-      <c r="AL63" s="9"/>
-      <c r="AM63" s="34"/>
-      <c r="AN63" s="35"/>
-      <c r="AO63" s="35"/>
-      <c r="AP63" s="36"/>
+      <c r="AJ63" s="9"/>
+      <c r="AK63" s="16"/>
+      <c r="AL63" s="17"/>
+      <c r="AM63" s="17"/>
+      <c r="AN63" s="18"/>
+      <c r="AO63" s="29"/>
+      <c r="AP63" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="AC56:AD63"/>
-    <mergeCell ref="AI48:AL55"/>
-    <mergeCell ref="AM48:AP55"/>
-    <mergeCell ref="C56:D63"/>
-    <mergeCell ref="E56:P63"/>
-    <mergeCell ref="AE56:AF63"/>
-    <mergeCell ref="AG56:AH63"/>
-    <mergeCell ref="AI56:AL63"/>
-    <mergeCell ref="AM56:AP63"/>
-    <mergeCell ref="AC48:AH55"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="C52:D55"/>
-    <mergeCell ref="S48:T55"/>
-    <mergeCell ref="U48:V55"/>
-    <mergeCell ref="E48:F55"/>
+  <mergeCells count="79">
+    <mergeCell ref="AO56:AP63"/>
+    <mergeCell ref="AI56:AJ63"/>
+    <mergeCell ref="AK56:AN63"/>
+    <mergeCell ref="Q56:R63"/>
+    <mergeCell ref="S56:V63"/>
+    <mergeCell ref="W56:X63"/>
+    <mergeCell ref="Y56:AB58"/>
+    <mergeCell ref="Y59:AB60"/>
+    <mergeCell ref="Y61:AB63"/>
+    <mergeCell ref="C38:D45"/>
+    <mergeCell ref="W38:Z40"/>
+    <mergeCell ref="W41:Z42"/>
+    <mergeCell ref="W43:Z45"/>
+    <mergeCell ref="C30:D37"/>
+    <mergeCell ref="E30:F37"/>
+    <mergeCell ref="G30:J37"/>
+    <mergeCell ref="K30:N37"/>
+    <mergeCell ref="O30:R37"/>
+    <mergeCell ref="S30:T37"/>
+    <mergeCell ref="U30:V37"/>
+    <mergeCell ref="W30:AB37"/>
+    <mergeCell ref="E38:P45"/>
+    <mergeCell ref="Q38:T45"/>
+    <mergeCell ref="W13:Z20"/>
+    <mergeCell ref="AA13:AB20"/>
+    <mergeCell ref="AM30:AP37"/>
+    <mergeCell ref="AI30:AL37"/>
+    <mergeCell ref="AG30:AH37"/>
+    <mergeCell ref="AM13:AP20"/>
+    <mergeCell ref="AE21:AH28"/>
+    <mergeCell ref="AE13:AL20"/>
+    <mergeCell ref="AC13:AD20"/>
+    <mergeCell ref="AI21:AJ28"/>
+    <mergeCell ref="AK21:AL28"/>
+    <mergeCell ref="AA21:AD28"/>
+    <mergeCell ref="AC38:AD39"/>
+    <mergeCell ref="AC30:AF37"/>
+    <mergeCell ref="AM21:AN28"/>
+    <mergeCell ref="AO21:AP28"/>
+    <mergeCell ref="U21:V28"/>
+    <mergeCell ref="W21:Z28"/>
+    <mergeCell ref="U38:V45"/>
+    <mergeCell ref="AG38:AH45"/>
+    <mergeCell ref="AC40:AD41"/>
+    <mergeCell ref="AM38:AP45"/>
+    <mergeCell ref="AC42:AD45"/>
+    <mergeCell ref="AI38:AL45"/>
+    <mergeCell ref="AA38:AB45"/>
+    <mergeCell ref="AE38:AF45"/>
     <mergeCell ref="G48:J55"/>
     <mergeCell ref="K48:N55"/>
     <mergeCell ref="O48:R55"/>
@@ -4061,52 +4102,20 @@
     <mergeCell ref="E21:F22"/>
     <mergeCell ref="E23:F24"/>
     <mergeCell ref="U13:V20"/>
-    <mergeCell ref="AC38:AD39"/>
-    <mergeCell ref="AC30:AF37"/>
-    <mergeCell ref="AM21:AN28"/>
-    <mergeCell ref="AO21:AP28"/>
-    <mergeCell ref="U21:V28"/>
-    <mergeCell ref="W21:Z28"/>
-    <mergeCell ref="U38:V45"/>
-    <mergeCell ref="W13:Z20"/>
-    <mergeCell ref="AA13:AB20"/>
-    <mergeCell ref="AM30:AP37"/>
-    <mergeCell ref="AI30:AL37"/>
-    <mergeCell ref="AG30:AH37"/>
-    <mergeCell ref="AG38:AH45"/>
-    <mergeCell ref="AC40:AD41"/>
-    <mergeCell ref="AM13:AP20"/>
-    <mergeCell ref="AE21:AH28"/>
-    <mergeCell ref="AE13:AL20"/>
-    <mergeCell ref="AC13:AD20"/>
-    <mergeCell ref="AI21:AJ28"/>
-    <mergeCell ref="AK21:AL28"/>
-    <mergeCell ref="AA21:AD28"/>
-    <mergeCell ref="AM38:AP45"/>
-    <mergeCell ref="AC42:AD45"/>
-    <mergeCell ref="AI38:AL45"/>
-    <mergeCell ref="AA38:AB45"/>
-    <mergeCell ref="AE38:AF45"/>
-    <mergeCell ref="C38:D45"/>
-    <mergeCell ref="W38:Z40"/>
-    <mergeCell ref="W41:Z42"/>
-    <mergeCell ref="W43:Z45"/>
-    <mergeCell ref="C30:D37"/>
-    <mergeCell ref="E30:F37"/>
-    <mergeCell ref="G30:J37"/>
-    <mergeCell ref="K30:N37"/>
-    <mergeCell ref="O30:R37"/>
-    <mergeCell ref="S30:T37"/>
-    <mergeCell ref="U30:V37"/>
-    <mergeCell ref="W30:AB37"/>
-    <mergeCell ref="E38:P45"/>
-    <mergeCell ref="Q38:T45"/>
-    <mergeCell ref="Q56:R63"/>
-    <mergeCell ref="S56:V63"/>
-    <mergeCell ref="W56:X63"/>
-    <mergeCell ref="Y56:AB58"/>
-    <mergeCell ref="Y59:AB60"/>
-    <mergeCell ref="Y61:AB63"/>
+    <mergeCell ref="AC56:AD63"/>
+    <mergeCell ref="AI48:AL55"/>
+    <mergeCell ref="AM48:AP55"/>
+    <mergeCell ref="C56:D63"/>
+    <mergeCell ref="E56:P63"/>
+    <mergeCell ref="AE56:AF63"/>
+    <mergeCell ref="AG56:AH63"/>
+    <mergeCell ref="AC48:AH55"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="C52:D55"/>
+    <mergeCell ref="S48:T55"/>
+    <mergeCell ref="U48:V55"/>
+    <mergeCell ref="E48:F55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
